--- a/AAII_Financials/Yearly/CCL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCL_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1718,7 +1718,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>444000</v>
+        <v>598000</v>
       </c>
       <c r="E43" s="3">
         <v>358000</v>
@@ -1784,7 +1784,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>670000</v>
+        <v>516000</v>
       </c>
       <c r="E45" s="3">
         <v>435000</v>

--- a/AAII_Financials/Yearly/CCL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>CCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,166 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43434</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43069</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42704</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42338</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41973</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41608</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41243</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40877</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5595000</v>
+      </c>
+      <c r="E8" s="3">
         <v>20825000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18881000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17510000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16389000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15714000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15884000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15456000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15382000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15793000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6727000</v>
+      </c>
+      <c r="E9" s="3">
         <v>12908000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11090000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10501000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9383000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9447000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10421000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10645000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10320000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10299000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-1132000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7917000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7791000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7009000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7006000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6267000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5463000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4811000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5062000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5494000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +907,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2096000</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>89000</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>13000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>173000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2241000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2160000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2017000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1846000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1738000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1626000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1637000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1590000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1527000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1522000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14460000</v>
+      </c>
+      <c r="E17" s="3">
         <v>17549000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15556000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14701000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13318000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13140000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14112000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14127000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13740000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13538000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8865000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3276000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3325000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2809000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3071000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2574000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1772000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1329000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1642000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2255000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1083,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-493000</v>
+      </c>
+      <c r="E20" s="3">
         <v>13000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>76000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>55000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-20000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-558000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-259000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>39000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>22000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7117000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5449000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5418000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4710000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4789000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3642000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3150000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2958000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3165000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3799000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>895000</v>
+      </c>
+      <c r="E22" s="3">
         <v>229000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>194000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>198000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>223000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>217000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>288000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>319000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>336000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>365000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10253000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3060000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3207000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2666000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2828000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1799000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1225000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1049000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1302000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1912000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E24" s="3">
         <v>71000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>54000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>60000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>49000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>42000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10236000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2989000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3153000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2606000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2779000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1757000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1216000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1055000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1298000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1912000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10236000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2990000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3152000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2606000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2779000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1757000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1216000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1055000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1298000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1912000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>493000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-13000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-76000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-55000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>20000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>558000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>259000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-39000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-22000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10236000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2990000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3152000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2606000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2779000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1757000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1216000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1055000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1298000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1912000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10236000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2990000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3152000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2606000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2779000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1757000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1216000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1055000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1298000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1912000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43434</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43069</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42704</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42338</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41973</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41608</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41243</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40877</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1732,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9513000</v>
+      </c>
+      <c r="E41" s="3">
         <v>518000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>982000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>395000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>603000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1395000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>331000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>462000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>465000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>450000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,141 +1801,156 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>427000</v>
+      </c>
+      <c r="E43" s="3">
         <v>598000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>358000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>312000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>298000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>412000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>486000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>786000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>730000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>293000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>335000</v>
+      </c>
+      <c r="E44" s="3">
         <v>427000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>450000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>387000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>322000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>330000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>349000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>374000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>390000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>374000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>288000</v>
+      </c>
+      <c r="E45" s="3">
         <v>516000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>435000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>502000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>944000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>314000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>322000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>315000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>236000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>195000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10563000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2059000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2225000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1596000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1689000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2451000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1488000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1937000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1821000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1312000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1876,75 +1981,84 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>39443000</v>
+      </c>
+      <c r="E48" s="3">
         <v>38131000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>35336000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>34430000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>66449000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>31888000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>65592000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>32905000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32137000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32054000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1993000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4086000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4101000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4167000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4185000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4248000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4397000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4502000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4488000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4652000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1594000</v>
+      </c>
+      <c r="E52" s="3">
         <v>782000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>739000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>585000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1156000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>650000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>744000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>760000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>715000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>619000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>53593000</v>
+      </c>
+      <c r="E54" s="3">
         <v>45058000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>42401000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>40778000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>38881000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39237000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39448000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40104000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39161000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>38637000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2268,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>624000</v>
+      </c>
+      <c r="E57" s="3">
         <v>756000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>730000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>762000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>713000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>627000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>626000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>639000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>549000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>576000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4826000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1827000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2426000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2202000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1097000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1374000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1725000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1468000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1734000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1300000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3236000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6544000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6048000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5836000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7002000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4955000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4570000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4613000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5057000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4229000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8686000</v>
+      </c>
+      <c r="E60" s="3">
         <v>9127000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9204000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8800000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7072000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6956000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6921000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6720000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7340000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6105000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22130000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9675000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7897000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6993000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8302000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7413000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7363000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8092000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7168000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8053000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2222000</v>
+      </c>
+      <c r="E62" s="3">
         <v>891000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>857000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>769000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1820000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1097000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>960000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>736000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>724000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>647000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33038000</v>
+      </c>
+      <c r="E66" s="3">
         <v>19693000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17958000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16562000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16284000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15466000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15244000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15548000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15232000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14805000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16075000</v>
+      </c>
+      <c r="E72" s="3">
         <v>26653000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>25066000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>23292000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>21843000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>20060000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>19158000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>18782000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18479000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18349000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20555000</v>
+      </c>
+      <c r="E76" s="3">
         <v>25365000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24443000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24216000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22597000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23771000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>24204000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24556000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23929000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23832000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43434</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43069</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42704</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42338</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41973</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41608</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41243</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40877</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10236000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2990000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3152000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2606000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2779000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1757000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1216000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1055000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1298000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1912000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2241000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2160000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2017000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1846000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1738000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1626000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1637000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1590000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1527000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1522000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6302000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5476000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5549000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5322000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5134000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4545000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3430000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2834000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2999000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3766000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3620000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5429000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3749000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2944000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3062000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2294000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2583000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2149000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2332000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2696000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3240000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5277000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3514000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3122000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3323000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2478000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2507000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2056000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1772000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2646000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3525,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-689000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1387000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1355000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1087000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-977000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-816000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-776000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1164000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-779000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-671000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3666,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18650000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-655000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1460000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2452000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2591000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-942000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1028000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-780000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1190000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1093000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>11000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-12000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-61000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-26000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-22000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9161000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-465000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>574000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-241000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-792000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1064000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-131000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>21000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CCL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCL_YR_FIN.xlsx
@@ -757,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6727000</v>
+        <v>4760000</v>
       </c>
       <c r="E9" s="3">
         <v>12908000</v>
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-1132000</v>
+        <v>835000</v>
       </c>
       <c r="E10" s="3">
         <v>7917000</v>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2096000</v>
+        <v>4063000</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/CCL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>CCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,179 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43434</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43069</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42704</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42338</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41973</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41608</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41243</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40877</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1908000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5595000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20825000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18881000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17510000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16389000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15714000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15884000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15456000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15382000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15793000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2717000</v>
+      </c>
+      <c r="E9" s="3">
         <v>4760000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12908000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11090000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10501000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9383000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9447000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10421000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10645000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10320000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10299000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-809000</v>
+      </c>
+      <c r="E10" s="3">
         <v>835000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7917000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7791000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7009000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7006000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6267000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5463000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4811000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5062000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5494000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,81 +927,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1487000</v>
+      </c>
+      <c r="E14" s="3">
         <v>4063000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>89000</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>13000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>173000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2233000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2241000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2160000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2017000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1846000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1738000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1626000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1637000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1590000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1527000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1522000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9667000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14460000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17549000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15556000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14701000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13318000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13140000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14112000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14127000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13740000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13538000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7759000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8865000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3276000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3325000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2809000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3071000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2574000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1772000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1329000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1642000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2255000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,188 +1117,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-493000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>13000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>76000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>55000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-20000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-558000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-259000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>39000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>22000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5688000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7117000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5449000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5418000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4710000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4789000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3642000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3150000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2958000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3165000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3799000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1601000</v>
+      </c>
+      <c r="E22" s="3">
         <v>895000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>229000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>194000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>198000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>223000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>217000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>288000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>319000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>336000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>365000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9522000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10253000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3060000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3207000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2666000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2828000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1799000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1225000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1049000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1302000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1912000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-17000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>71000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>54000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>60000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>49000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>42000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9501000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10236000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2989000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3153000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2606000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2779000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1757000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1216000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1055000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1298000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1912000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9501000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10236000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2990000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3152000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2606000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2779000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1757000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1216000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1055000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1298000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1912000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1465,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1504,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E32" s="3">
         <v>493000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-13000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-76000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-55000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>20000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>558000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>259000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-39000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-22000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9501000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10236000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2990000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3152000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2606000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2779000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1757000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1216000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1055000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1298000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1912000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9501000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10236000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2990000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3152000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2606000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2779000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1757000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1216000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1055000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1298000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1912000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43434</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43069</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42704</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42338</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41973</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41608</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41243</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40877</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,67 +1819,71 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8939000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9513000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>518000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>982000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>395000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>603000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1395000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>331000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>462000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>465000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>450000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>200000</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1804,153 +1894,168 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E43" s="3">
         <v>427000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>598000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>358000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>312000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>298000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>412000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>486000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>786000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>730000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>293000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>356000</v>
+      </c>
+      <c r="E44" s="3">
         <v>335000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>427000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>450000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>387000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>322000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>330000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>349000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>374000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>390000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>374000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>392000</v>
+      </c>
+      <c r="E45" s="3">
         <v>288000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>516000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>435000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>502000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>944000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>314000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>322000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>315000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>236000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>195000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10133000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10563000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2059000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2225000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1596000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1689000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2451000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1488000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1937000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1821000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1312000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1984,81 +2089,90 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>39440000</v>
+      </c>
+      <c r="E48" s="3">
         <v>39443000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>38131000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>35336000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>34430000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>66449000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>31888000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>65592000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32905000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32137000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32054000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1760000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1993000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4086000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4101000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4167000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4185000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4248000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4397000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4502000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4488000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4652000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2011000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1594000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>782000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>739000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>585000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1156000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>650000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>744000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>760000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>715000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>619000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>53344000</v>
+      </c>
+      <c r="E54" s="3">
         <v>53593000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>45058000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>42401000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40778000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>38881000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39237000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39448000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>40104000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39161000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>38637000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,224 +2399,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>797000</v>
+      </c>
+      <c r="E57" s="3">
         <v>624000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>756000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>730000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>762000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>713000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>627000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>626000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>639000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>549000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>576000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4717000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4826000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1827000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2426000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2202000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1097000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1374000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1725000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1468000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1734000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1300000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4894000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3236000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6544000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6048000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5836000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7002000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4955000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4570000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4613000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5057000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4229000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10408000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8686000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9127000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9204000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8800000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7072000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6956000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6921000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6720000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7340000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6105000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>28509000</v>
+      </c>
+      <c r="E61" s="3">
         <v>22130000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9675000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7897000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6993000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8302000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7413000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7363000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8092000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7168000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8053000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2283000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2222000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>891000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>857000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>769000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1820000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1097000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>960000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>736000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>724000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>647000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41200000</v>
+      </c>
+      <c r="E66" s="3">
         <v>33038000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19693000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17958000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16562000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16284000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15466000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15244000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15548000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15232000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14805000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6448000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16075000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>26653000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>25066000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>23292000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>21843000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>20060000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>19158000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18782000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18479000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18349000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12144000</v>
+      </c>
+      <c r="E76" s="3">
         <v>20555000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25365000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24443000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>24216000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22597000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23771000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24204000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24556000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23929000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23832000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43434</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43069</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42704</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42338</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41973</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41608</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41243</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40877</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9501000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10236000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2990000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3152000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2606000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2779000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1757000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1216000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1055000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1298000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1912000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2233000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2241000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2160000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2017000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1846000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1738000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1626000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1637000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1590000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1527000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1522000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4108000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6302000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5476000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5549000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5322000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5134000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4545000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3430000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2834000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2999000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3766000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3607000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3620000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5429000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3749000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2944000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3062000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2294000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2583000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2149000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2332000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2696000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3543000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3240000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5277000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3514000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3122000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3323000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2478000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2507000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2056000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1772000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2646000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,44 +3759,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-689000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1387000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1355000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1087000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-977000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-816000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-776000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1164000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-779000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-671000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3912,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6949000</v>
+      </c>
+      <c r="E100" s="3">
         <v>18650000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-655000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1460000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2452000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2591000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-942000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1028000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-780000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1190000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1093000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E101" s="3">
         <v>53000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-9000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>11000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-61000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-26000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-22000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-715000</v>
+      </c>
+      <c r="E102" s="3">
         <v>9161000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-465000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>574000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-241000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-792000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1064000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-131000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>21000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CCL_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCL_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>CCL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,191 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43434</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43069</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42704</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42338</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41973</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41608</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41243</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40877</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12168000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1908000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5595000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20825000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18881000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17510000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16389000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15714000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15884000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15456000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15382000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15793000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8359000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2717000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4760000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12908000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11090000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10501000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9383000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9447000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10421000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10645000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10320000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10299000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3809000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-809000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>835000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7917000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7791000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7009000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7006000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6267000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5463000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4811000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5062000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5494000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,87 +946,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>441000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1487000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4063000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>89000</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>13000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>173000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2275000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2233000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2241000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2160000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2017000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1846000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1738000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1626000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1637000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1590000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1527000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1522000</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16548000</v>
+      </c>
+      <c r="E17" s="3">
         <v>9667000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14460000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17549000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15556000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14701000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13318000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13140000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14112000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14127000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13740000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13538000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4380000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7759000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8865000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3276000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3325000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2809000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3071000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2574000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1772000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1329000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1642000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2255000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,203 +1150,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-162000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-493000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>13000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>76000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>55000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-20000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-558000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-259000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>39000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>22000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2196000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5688000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7117000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5449000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5418000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4710000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4789000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3642000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3150000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2958000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3165000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3799000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1609000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1601000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>895000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>229000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>194000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>198000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>223000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>217000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>288000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>319000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>336000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>365000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6080000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9522000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10253000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3060000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3207000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2666000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2828000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1799000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1225000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1049000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1302000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1912000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-21000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-17000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>71000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>54000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>60000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>49000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>42000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6094000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9501000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10236000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2989000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3153000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2606000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2779000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1757000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1216000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1055000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1298000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1912000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6093000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9501000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10236000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2990000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3152000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2606000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2779000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1757000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1216000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1055000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1298000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1912000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,9 +1525,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1507,9 +1567,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E32" s="3">
         <v>162000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>493000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-13000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-76000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-55000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>20000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>558000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>259000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-39000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-22000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6093000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9501000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10236000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2990000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3152000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2606000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2779000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1757000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1216000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1055000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1298000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1912000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6093000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9501000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10236000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2990000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3152000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2606000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2779000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1757000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1216000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1055000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1298000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1912000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43434</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43069</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42704</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42338</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41973</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41608</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41243</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40877</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,55 +1905,59 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4029000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8939000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9513000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>518000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>982000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>395000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>603000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1395000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>331000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>462000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>465000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>450000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>200000</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -1885,8 +1974,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1897,165 +1986,180 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>395000</v>
+      </c>
+      <c r="E43" s="3">
         <v>246000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>427000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>598000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>358000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>312000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>298000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>412000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>486000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>786000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>730000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>293000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>428000</v>
+      </c>
+      <c r="E44" s="3">
         <v>356000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>335000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>427000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>450000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>387000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>322000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>330000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>349000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>374000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>390000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>374000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2640000</v>
+      </c>
+      <c r="E45" s="3">
         <v>392000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>288000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>516000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>435000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>502000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>944000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>314000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>322000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>315000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>236000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>195000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7492000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10133000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10563000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2059000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2225000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1596000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1689000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2451000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1488000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1937000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1821000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1312000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2092,87 +2196,96 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>39961000</v>
+      </c>
+      <c r="E48" s="3">
         <v>39440000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>39443000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>38131000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35336000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>34430000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>66449000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>31888000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>65592000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32905000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32137000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>32054000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1735000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1760000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1993000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4086000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4101000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4167000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4185000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4248000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4397000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4502000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4488000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4652000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2515000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2011000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1594000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>782000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>739000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>585000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1156000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>650000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>744000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>760000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>715000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>619000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>51703000</v>
+      </c>
+      <c r="E54" s="3">
         <v>53344000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>53593000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45058000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>42401000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40778000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>38881000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39237000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39448000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>40104000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>39161000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>38637000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,242 +2529,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="E57" s="3">
         <v>797000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>624000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>756000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>730000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>762000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>713000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>627000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>626000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>639000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>549000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>576000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2593000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4717000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4826000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1827000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2426000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2202000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1097000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1374000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1725000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1468000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1734000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1300000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6962000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4894000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3236000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6544000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6048000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5836000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7002000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4955000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4570000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4613000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5057000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4229000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10605000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10408000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8686000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9127000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9204000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8800000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7072000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6956000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6921000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6720000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7340000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6105000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>31953000</v>
+      </c>
+      <c r="E61" s="3">
         <v>28509000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22130000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9675000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7897000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6993000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8302000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7413000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7363000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8092000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7168000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8053000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2080000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2283000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2222000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>891000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>857000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>769000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1820000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1097000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>960000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>736000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>724000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>647000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>44638000</v>
+      </c>
+      <c r="E66" s="3">
         <v>41200000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>33038000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19693000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17958000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16562000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16284000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15466000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15244000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15548000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15232000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14805000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>269000</v>
+      </c>
+      <c r="E72" s="3">
         <v>6448000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16075000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>26653000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>25066000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>23292000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>21843000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>20060000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19158000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18782000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18479000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18349000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7065000</v>
+      </c>
+      <c r="E76" s="3">
         <v>12144000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20555000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25365000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>24443000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>24216000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22597000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23771000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24204000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>24556000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23929000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23832000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43434</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43069</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42704</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42338</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41973</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41608</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41243</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40877</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6093000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9501000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10236000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2990000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3152000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2606000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2779000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1757000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1216000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1055000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1298000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1912000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2275000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2233000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2241000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2160000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2017000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1846000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1738000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1626000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1637000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1590000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1527000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1522000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1671000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4108000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6302000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5476000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5549000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5322000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5134000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4545000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3430000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2834000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2999000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3766000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4940000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3607000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3620000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5429000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3749000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2944000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3062000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2294000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2583000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2149000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2332000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2696000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4767000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3543000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3240000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5277000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3514000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3122000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3323000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2478000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2507000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2056000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1772000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2646000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,8 +3992,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3769,38 +4002,41 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-689000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1387000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1355000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1087000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-977000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-816000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-776000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1164000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-779000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-671000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,124 +4157,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3577000</v>
+      </c>
+      <c r="E100" s="3">
         <v>6949000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>18650000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-655000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1460000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2452000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2591000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-942000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1028000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-780000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1190000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1093000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-13000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>53000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-9000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>11000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-12000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-61000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-26000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-22000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6000</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2940000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-715000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9161000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-465000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>574000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-241000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-792000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1064000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-131000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>21000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
